--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Alcam-Cd6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Alcam-Cd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H2">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0440100488874674</v>
+        <v>0.003551666666666667</v>
       </c>
       <c r="N2">
-        <v>0.0440100488874674</v>
+        <v>0.010655</v>
       </c>
       <c r="O2">
-        <v>0.5979807624287981</v>
+        <v>0.02030734514100788</v>
       </c>
       <c r="P2">
-        <v>0.5979807624287981</v>
+        <v>0.02030734514100788</v>
       </c>
       <c r="Q2">
-        <v>0.01953167457966438</v>
+        <v>0.005195420619999999</v>
       </c>
       <c r="R2">
-        <v>0.01953167457966438</v>
+        <v>0.04675878558</v>
       </c>
       <c r="S2">
-        <v>0.003385556288164926</v>
+        <v>0.0003545643700112228</v>
       </c>
       <c r="T2">
-        <v>0.003385556288164926</v>
+        <v>0.0003545643700112229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H3">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I3">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J3">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0122369894924589</v>
+        <v>0.055802</v>
       </c>
       <c r="N3">
-        <v>0.0122369894924589</v>
+        <v>0.167406</v>
       </c>
       <c r="O3">
-        <v>0.1662684884819008</v>
+        <v>0.3190587912412543</v>
       </c>
       <c r="P3">
-        <v>0.1662684884819008</v>
+        <v>0.3190587912412543</v>
       </c>
       <c r="Q3">
-        <v>0.005430780075082841</v>
+        <v>0.08162783522399998</v>
       </c>
       <c r="R3">
-        <v>0.005430780075082841</v>
+        <v>0.7346505170159999</v>
       </c>
       <c r="S3">
-        <v>0.0009413535720065961</v>
+        <v>0.005570737017935126</v>
       </c>
       <c r="T3">
-        <v>0.0009413535720065961</v>
+        <v>0.005570737017935127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H4">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I4">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J4">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0173507287266831</v>
+        <v>0.04547566666666666</v>
       </c>
       <c r="N4">
-        <v>0.0173507287266831</v>
+        <v>0.136427</v>
       </c>
       <c r="O4">
-        <v>0.2357507490893012</v>
+        <v>0.2600159714267744</v>
       </c>
       <c r="P4">
-        <v>0.2357507490893012</v>
+        <v>0.2600159714267744</v>
       </c>
       <c r="Q4">
-        <v>0.007700259276606101</v>
+        <v>0.06652235090799999</v>
       </c>
       <c r="R4">
-        <v>0.007700259276606101</v>
+        <v>0.5987011581719999</v>
       </c>
       <c r="S4">
-        <v>0.00133473763901211</v>
+        <v>0.00453985483881005</v>
       </c>
       <c r="T4">
-        <v>0.00133473763901211</v>
+        <v>0.004539854838810051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.58953177156822</v>
+        <v>1.462812</v>
       </c>
       <c r="H5">
-        <v>1.58953177156822</v>
+        <v>4.388436</v>
       </c>
       <c r="I5">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J5">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0440100488874674</v>
+        <v>0.046232</v>
       </c>
       <c r="N5">
-        <v>0.0440100488874674</v>
+        <v>0.138696</v>
       </c>
       <c r="O5">
-        <v>0.5979807624287981</v>
+        <v>0.2643404544042448</v>
       </c>
       <c r="P5">
-        <v>0.5979807624287981</v>
+        <v>0.2643404544042449</v>
       </c>
       <c r="Q5">
-        <v>0.06995537097490002</v>
+        <v>0.067628724384</v>
       </c>
       <c r="R5">
-        <v>0.06995537097490002</v>
+        <v>0.608658519456</v>
       </c>
       <c r="S5">
-        <v>0.01212583412287491</v>
+        <v>0.004615359912067251</v>
       </c>
       <c r="T5">
-        <v>0.01212583412287491</v>
+        <v>0.004615359912067253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58953177156822</v>
+        <v>1.462812</v>
       </c>
       <c r="H6">
-        <v>1.58953177156822</v>
+        <v>4.388436</v>
       </c>
       <c r="I6">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J6">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0122369894924589</v>
+        <v>0.02383433333333334</v>
       </c>
       <c r="N6">
-        <v>0.0122369894924589</v>
+        <v>0.07150300000000001</v>
       </c>
       <c r="O6">
-        <v>0.1662684884819008</v>
+        <v>0.1362774377867186</v>
       </c>
       <c r="P6">
-        <v>0.1662684884819008</v>
+        <v>0.1362774377867186</v>
       </c>
       <c r="Q6">
-        <v>0.01945108358660989</v>
+        <v>0.034865148812</v>
       </c>
       <c r="R6">
-        <v>0.01945108358660989</v>
+        <v>0.313786339308</v>
       </c>
       <c r="S6">
-        <v>0.00337158691026073</v>
+        <v>0.002379391473384558</v>
       </c>
       <c r="T6">
-        <v>0.00337158691026073</v>
+        <v>0.002379391473384559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="H7">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="I7">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J7">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.0173507287266831</v>
+        <v>0.003551666666666667</v>
       </c>
       <c r="N7">
-        <v>0.0173507287266831</v>
+        <v>0.010655</v>
       </c>
       <c r="O7">
-        <v>0.2357507490893012</v>
+        <v>0.02030734514100788</v>
       </c>
       <c r="P7">
-        <v>0.2357507490893012</v>
+        <v>0.02030734514100788</v>
       </c>
       <c r="Q7">
-        <v>0.02757953457092419</v>
+        <v>0.00582920133</v>
       </c>
       <c r="R7">
-        <v>0.02757953457092419</v>
+        <v>0.05246281197</v>
       </c>
       <c r="S7">
-        <v>0.0047805458927966</v>
+        <v>0.0003978170870869801</v>
       </c>
       <c r="T7">
-        <v>0.0047805458927966</v>
+        <v>0.0003978170870869802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3080121071907</v>
+        <v>1.641258</v>
       </c>
       <c r="H8">
-        <v>41.3080121071907</v>
+        <v>4.923774</v>
       </c>
       <c r="I8">
-        <v>0.5269743696026975</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J8">
-        <v>0.5269743696026975</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.0440100488874674</v>
+        <v>0.055802</v>
       </c>
       <c r="N8">
-        <v>0.0440100488874674</v>
+        <v>0.167406</v>
       </c>
       <c r="O8">
-        <v>0.5979807624287981</v>
+        <v>0.3190587912412543</v>
       </c>
       <c r="P8">
-        <v>0.5979807624287981</v>
+        <v>0.3190587912412543</v>
       </c>
       <c r="Q8">
-        <v>1.817967632281558</v>
+        <v>0.091585478916</v>
       </c>
       <c r="R8">
-        <v>1.817967632281558</v>
+        <v>0.824269310244</v>
       </c>
       <c r="S8">
-        <v>0.3151205353154563</v>
+        <v>0.006250301950340965</v>
       </c>
       <c r="T8">
-        <v>0.3151205353154563</v>
+        <v>0.006250301950340967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3080121071907</v>
+        <v>1.641258</v>
       </c>
       <c r="H9">
-        <v>41.3080121071907</v>
+        <v>4.923774</v>
       </c>
       <c r="I9">
-        <v>0.5269743696026975</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J9">
-        <v>0.5269743696026975</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0122369894924589</v>
+        <v>0.04547566666666666</v>
       </c>
       <c r="N9">
-        <v>0.0122369894924589</v>
+        <v>0.136427</v>
       </c>
       <c r="O9">
-        <v>0.1662684884819008</v>
+        <v>0.2600159714267744</v>
       </c>
       <c r="P9">
-        <v>0.1662684884819008</v>
+        <v>0.2600159714267744</v>
       </c>
       <c r="Q9">
-        <v>0.5054857101100576</v>
+        <v>0.07463730172199999</v>
       </c>
       <c r="R9">
-        <v>0.5054857101100576</v>
+        <v>0.6717357154979999</v>
       </c>
       <c r="S9">
-        <v>0.08761923190254303</v>
+        <v>0.005093664170813274</v>
       </c>
       <c r="T9">
-        <v>0.08761923190254303</v>
+        <v>0.005093664170813274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.3080121071907</v>
+        <v>1.641258</v>
       </c>
       <c r="H10">
-        <v>41.3080121071907</v>
+        <v>4.923774</v>
       </c>
       <c r="I10">
-        <v>0.5269743696026975</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J10">
-        <v>0.5269743696026975</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0173507287266831</v>
+        <v>0.046232</v>
       </c>
       <c r="N10">
-        <v>0.0173507287266831</v>
+        <v>0.138696</v>
       </c>
       <c r="O10">
-        <v>0.2357507490893012</v>
+        <v>0.2643404544042448</v>
       </c>
       <c r="P10">
-        <v>0.2357507490893012</v>
+        <v>0.2643404544042449</v>
       </c>
       <c r="Q10">
-        <v>0.7167241123104069</v>
+        <v>0.075878639856</v>
       </c>
       <c r="R10">
-        <v>0.7167241123104069</v>
+        <v>0.682907758704</v>
       </c>
       <c r="S10">
-        <v>0.1242346023846982</v>
+        <v>0.00517837998222579</v>
       </c>
       <c r="T10">
-        <v>0.1242346023846982</v>
+        <v>0.005178379982225791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4900810504661</v>
+        <v>1.641258</v>
       </c>
       <c r="H11">
-        <v>34.4900810504661</v>
+        <v>4.923774</v>
       </c>
       <c r="I11">
-        <v>0.4399966929406277</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J11">
-        <v>0.4399966929406277</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0440100488874674</v>
+        <v>0.02383433333333334</v>
       </c>
       <c r="N11">
-        <v>0.0440100488874674</v>
+        <v>0.07150300000000001</v>
       </c>
       <c r="O11">
-        <v>0.5979807624287981</v>
+        <v>0.1362774377867186</v>
       </c>
       <c r="P11">
-        <v>0.5979807624287981</v>
+        <v>0.1362774377867186</v>
       </c>
       <c r="Q11">
-        <v>1.517910153163726</v>
+        <v>0.039118290258</v>
       </c>
       <c r="R11">
-        <v>1.517910153163726</v>
+        <v>0.352064612322</v>
       </c>
       <c r="S11">
-        <v>0.2631095579107863</v>
+        <v>0.002669649477051182</v>
       </c>
       <c r="T11">
-        <v>0.2631095579107863</v>
+        <v>0.002669649477051182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4900810504661</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H12">
-        <v>34.4900810504661</v>
+        <v>124.992405</v>
       </c>
       <c r="I12">
-        <v>0.4399966929406277</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J12">
-        <v>0.4399966929406277</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0122369894924589</v>
+        <v>0.003551666666666667</v>
       </c>
       <c r="N12">
-        <v>0.0122369894924589</v>
+        <v>0.010655</v>
       </c>
       <c r="O12">
-        <v>0.1662684884819008</v>
+        <v>0.02030734514100788</v>
       </c>
       <c r="P12">
-        <v>0.1662684884819008</v>
+        <v>0.02030734514100788</v>
       </c>
       <c r="Q12">
-        <v>0.4220547594086095</v>
+        <v>0.147977119475</v>
       </c>
       <c r="R12">
-        <v>0.4220547594086095</v>
+        <v>1.331794075275</v>
       </c>
       <c r="S12">
-        <v>0.07315758507227318</v>
+        <v>0.01009878082647499</v>
       </c>
       <c r="T12">
-        <v>0.07315758507227318</v>
+        <v>0.010098780826475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4900810504661</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H13">
-        <v>34.4900810504661</v>
+        <v>124.992405</v>
       </c>
       <c r="I13">
-        <v>0.4399966929406277</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J13">
-        <v>0.4399966929406277</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.0173507287266831</v>
+        <v>0.055802</v>
       </c>
       <c r="N13">
-        <v>0.0173507287266831</v>
+        <v>0.167406</v>
       </c>
       <c r="O13">
-        <v>0.2357507490893012</v>
+        <v>0.3190587912412543</v>
       </c>
       <c r="P13">
-        <v>0.2357507490893012</v>
+        <v>0.3190587912412543</v>
       </c>
       <c r="Q13">
-        <v>0.5984280400679506</v>
+        <v>2.32494206127</v>
       </c>
       <c r="R13">
-        <v>0.5984280400679506</v>
+        <v>20.92447855143</v>
       </c>
       <c r="S13">
-        <v>0.1037295499575682</v>
+        <v>0.1586669641517478</v>
       </c>
       <c r="T13">
-        <v>0.1037295499575682</v>
+        <v>0.1586669641517478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.555711735734343</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H14">
-        <v>0.555711735734343</v>
+        <v>124.992405</v>
       </c>
       <c r="I14">
-        <v>0.007089323031559028</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J14">
-        <v>0.007089323031559028</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0440100488874674</v>
+        <v>0.04547566666666666</v>
       </c>
       <c r="N14">
-        <v>0.0440100488874674</v>
+        <v>0.136427</v>
       </c>
       <c r="O14">
-        <v>0.5979807624287981</v>
+        <v>0.2600159714267744</v>
       </c>
       <c r="P14">
-        <v>0.5979807624287981</v>
+        <v>0.2600159714267744</v>
       </c>
       <c r="Q14">
-        <v>0.0244569006570078</v>
+        <v>1.894704315215</v>
       </c>
       <c r="R14">
-        <v>0.0244569006570078</v>
+        <v>17.052338836935</v>
       </c>
       <c r="S14">
-        <v>0.004239278791515705</v>
+        <v>0.129305149865181</v>
       </c>
       <c r="T14">
-        <v>0.004239278791515705</v>
+        <v>0.129305149865181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.555711735734343</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H15">
-        <v>0.555711735734343</v>
+        <v>124.992405</v>
       </c>
       <c r="I15">
-        <v>0.007089323031559028</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J15">
-        <v>0.007089323031559028</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0122369894924589</v>
+        <v>0.046232</v>
       </c>
       <c r="N15">
-        <v>0.0122369894924589</v>
+        <v>0.138696</v>
       </c>
       <c r="O15">
-        <v>0.1662684884819008</v>
+        <v>0.2643404544042448</v>
       </c>
       <c r="P15">
-        <v>0.1662684884819008</v>
+        <v>0.2643404544042449</v>
       </c>
       <c r="Q15">
-        <v>0.006800238671017252</v>
+        <v>1.92621628932</v>
       </c>
       <c r="R15">
-        <v>0.006800238671017252</v>
+        <v>17.33594660388</v>
       </c>
       <c r="S15">
-        <v>0.001178731024817246</v>
+        <v>0.1314557020655819</v>
       </c>
       <c r="T15">
-        <v>0.001178731024817246</v>
+        <v>0.131455702065582</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.555711735734343</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H16">
-        <v>0.555711735734343</v>
+        <v>124.992405</v>
       </c>
       <c r="I16">
-        <v>0.007089323031559028</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J16">
-        <v>0.007089323031559028</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0173507287266831</v>
+        <v>0.02383433333333334</v>
       </c>
       <c r="N16">
-        <v>0.0173507287266831</v>
+        <v>0.07150300000000001</v>
       </c>
       <c r="O16">
-        <v>0.2357507490893012</v>
+        <v>0.1362774377867186</v>
       </c>
       <c r="P16">
-        <v>0.2357507490893012</v>
+        <v>0.1362774377867186</v>
       </c>
       <c r="Q16">
-        <v>0.009642003576960791</v>
+        <v>0.9930368816349999</v>
       </c>
       <c r="R16">
-        <v>0.009642003576960791</v>
+        <v>8.937331934715001</v>
       </c>
       <c r="S16">
-        <v>0.001671313215226077</v>
+        <v>0.06777035433462614</v>
       </c>
       <c r="T16">
-        <v>0.001671313215226077</v>
+        <v>0.06777035433462616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H17">
+        <v>115.246123</v>
+      </c>
+      <c r="I17">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J17">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.003551666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.010655</v>
+      </c>
+      <c r="O17">
+        <v>0.02030734514100788</v>
+      </c>
+      <c r="P17">
+        <v>0.02030734514100788</v>
+      </c>
+      <c r="Q17">
+        <v>0.1364386045072222</v>
+      </c>
+      <c r="R17">
+        <v>1.227947440565</v>
+      </c>
+      <c r="S17">
+        <v>0.009311328454540729</v>
+      </c>
+      <c r="T17">
+        <v>0.009311328454540729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H18">
+        <v>115.246123</v>
+      </c>
+      <c r="I18">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J18">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.055802</v>
+      </c>
+      <c r="N18">
+        <v>0.167406</v>
+      </c>
+      <c r="O18">
+        <v>0.3190587912412543</v>
+      </c>
+      <c r="P18">
+        <v>0.3190587912412543</v>
+      </c>
+      <c r="Q18">
+        <v>2.143654718548667</v>
+      </c>
+      <c r="R18">
+        <v>19.292892466938</v>
+      </c>
+      <c r="S18">
+        <v>0.1462949086119986</v>
+      </c>
+      <c r="T18">
+        <v>0.1462949086119986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H19">
+        <v>115.246123</v>
+      </c>
+      <c r="I19">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J19">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.04547566666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.136427</v>
+      </c>
+      <c r="O19">
+        <v>0.2600159714267744</v>
+      </c>
+      <c r="P19">
+        <v>0.2600159714267744</v>
+      </c>
+      <c r="Q19">
+        <v>1.746964758057889</v>
+      </c>
+      <c r="R19">
+        <v>15.722682822521</v>
+      </c>
+      <c r="S19">
+        <v>0.1192225816112274</v>
+      </c>
+      <c r="T19">
+        <v>0.1192225816112274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H20">
+        <v>115.246123</v>
+      </c>
+      <c r="I20">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J20">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.046232</v>
+      </c>
+      <c r="N20">
+        <v>0.138696</v>
+      </c>
+      <c r="O20">
+        <v>0.2643404544042448</v>
+      </c>
+      <c r="P20">
+        <v>0.2643404544042449</v>
+      </c>
+      <c r="Q20">
+        <v>1.776019586178667</v>
+      </c>
+      <c r="R20">
+        <v>15.984176275608</v>
+      </c>
+      <c r="S20">
+        <v>0.1212054445172202</v>
+      </c>
+      <c r="T20">
+        <v>0.1212054445172202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H21">
+        <v>115.246123</v>
+      </c>
+      <c r="I21">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J21">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.02383433333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.07150300000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.1362774377867186</v>
+      </c>
+      <c r="P21">
+        <v>0.1362774377867186</v>
+      </c>
+      <c r="Q21">
+        <v>0.9156048369854445</v>
+      </c>
+      <c r="R21">
+        <v>8.240443532869001</v>
+      </c>
+      <c r="S21">
+        <v>0.06248596137822861</v>
+      </c>
+      <c r="T21">
+        <v>0.06248596137822861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.59762</v>
+      </c>
+      <c r="H22">
+        <v>1.79286</v>
+      </c>
+      <c r="I22">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J22">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003551666666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.010655</v>
+      </c>
+      <c r="O22">
+        <v>0.02030734514100788</v>
+      </c>
+      <c r="P22">
+        <v>0.02030734514100788</v>
+      </c>
+      <c r="Q22">
+        <v>0.002122547033333333</v>
+      </c>
+      <c r="R22">
+        <v>0.0191029233</v>
+      </c>
+      <c r="S22">
+        <v>0.0001448544028939515</v>
+      </c>
+      <c r="T22">
+        <v>0.0001448544028939515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.59762</v>
+      </c>
+      <c r="H23">
+        <v>1.79286</v>
+      </c>
+      <c r="I23">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J23">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.055802</v>
+      </c>
+      <c r="N23">
+        <v>0.167406</v>
+      </c>
+      <c r="O23">
+        <v>0.3190587912412543</v>
+      </c>
+      <c r="P23">
+        <v>0.3190587912412543</v>
+      </c>
+      <c r="Q23">
+        <v>0.03334839124</v>
+      </c>
+      <c r="R23">
+        <v>0.30013552116</v>
+      </c>
+      <c r="S23">
+        <v>0.002275879509231801</v>
+      </c>
+      <c r="T23">
+        <v>0.002275879509231802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.59762</v>
+      </c>
+      <c r="H24">
+        <v>1.79286</v>
+      </c>
+      <c r="I24">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J24">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.04547566666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.136427</v>
+      </c>
+      <c r="O24">
+        <v>0.2600159714267744</v>
+      </c>
+      <c r="P24">
+        <v>0.2600159714267744</v>
+      </c>
+      <c r="Q24">
+        <v>0.02717716791333333</v>
+      </c>
+      <c r="R24">
+        <v>0.24459451122</v>
+      </c>
+      <c r="S24">
+        <v>0.001854720940742667</v>
+      </c>
+      <c r="T24">
+        <v>0.001854720940742668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.59762</v>
+      </c>
+      <c r="H25">
+        <v>1.79286</v>
+      </c>
+      <c r="I25">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J25">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.046232</v>
+      </c>
+      <c r="N25">
+        <v>0.138696</v>
+      </c>
+      <c r="O25">
+        <v>0.2643404544042448</v>
+      </c>
+      <c r="P25">
+        <v>0.2643404544042449</v>
+      </c>
+      <c r="Q25">
+        <v>0.02762916784</v>
+      </c>
+      <c r="R25">
+        <v>0.24866251056</v>
+      </c>
+      <c r="S25">
+        <v>0.001885567927149648</v>
+      </c>
+      <c r="T25">
+        <v>0.001885567927149649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.59762</v>
+      </c>
+      <c r="H26">
+        <v>1.79286</v>
+      </c>
+      <c r="I26">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J26">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.02383433333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.07150300000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1362774377867186</v>
+      </c>
+      <c r="P26">
+        <v>0.1362774377867186</v>
+      </c>
+      <c r="Q26">
+        <v>0.01424387428666667</v>
+      </c>
+      <c r="R26">
+        <v>0.12819486858</v>
+      </c>
+      <c r="S26">
+        <v>0.0009720811234280822</v>
+      </c>
+      <c r="T26">
+        <v>0.0009720811234280825</v>
       </c>
     </row>
   </sheetData>
